--- a/data/out/cities.xlsx
+++ b/data/out/cities.xlsx
@@ -439,7 +439,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Год_основания</t>
+          <t>Год основания</t>
         </is>
       </c>
     </row>
